--- a/Dienstplan.xlsx
+++ b/Dienstplan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -34,25 +34,49 @@
     <t>Früh 2</t>
   </si>
   <si>
-    <t>Spät 1</t>
+    <t>Früh 3</t>
   </si>
   <si>
-    <t>Spät 2</t>
+    <t>Büro</t>
   </si>
   <si>
-    <t>Nacht 1</t>
+    <t>Früh 5</t>
   </si>
   <si>
-    <t>Nacht 2</t>
+    <t>Spät</t>
   </si>
   <si>
-    <t>06:00-14:00</t>
+    <t>Nacht</t>
   </si>
   <si>
-    <t>14:00-22:00</t>
+    <t>08-16</t>
   </si>
   <si>
-    <t>22:00-06:00</t>
+    <t>08-14</t>
+  </si>
+  <si>
+    <t>10-18</t>
+  </si>
+  <si>
+    <t>09-18</t>
+  </si>
+  <si>
+    <t>12-21</t>
+  </si>
+  <si>
+    <t>15-23</t>
+  </si>
+  <si>
+    <t>19-10</t>
+  </si>
+  <si>
+    <t>09-17</t>
+  </si>
+  <si>
+    <t>09-19</t>
+  </si>
+  <si>
+    <t>19-11</t>
   </si>
 </sst>
 </file>
@@ -414,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,279 +460,279 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45353</v>
+        <v>45474</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45353</v>
+        <v>45475</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45353</v>
+        <v>45475</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45353</v>
+        <v>45475</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45353</v>
+        <v>45475</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45353</v>
+        <v>45475</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45354</v>
+        <v>45475</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45354</v>
+        <v>45475</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45354</v>
+        <v>45476</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45354</v>
+        <v>45476</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45354</v>
+        <v>45476</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45354</v>
+        <v>45476</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45355</v>
+        <v>45476</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45355</v>
+        <v>45476</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>103</v>
@@ -716,38 +740,38 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45355</v>
+        <v>45476</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45355</v>
+        <v>45477</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45355</v>
+        <v>45477</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -758,307 +782,307 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45355</v>
+        <v>45477</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45356</v>
+        <v>45477</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45356</v>
+        <v>45477</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45356</v>
+        <v>45477</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45356</v>
+        <v>45477</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45356</v>
+        <v>45478</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45356</v>
+        <v>45478</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45357</v>
+        <v>45478</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45357</v>
+        <v>45478</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45357</v>
+        <v>45478</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45357</v>
+        <v>45478</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45357</v>
+        <v>45478</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45357</v>
+        <v>45479</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45358</v>
+        <v>45479</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45358</v>
+        <v>45479</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45358</v>
+        <v>45479</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45358</v>
+        <v>45479</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45358</v>
+        <v>45480</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45358</v>
+        <v>45480</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45359</v>
+        <v>45480</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45359</v>
+        <v>45480</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45359</v>
+        <v>45480</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>110</v>
@@ -1066,587 +1090,587 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45359</v>
+        <v>45481</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45359</v>
+        <v>45481</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45359</v>
+        <v>45481</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45360</v>
+        <v>45481</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45360</v>
+        <v>45481</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45360</v>
+        <v>45481</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45360</v>
+        <v>45481</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45360</v>
+        <v>45482</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45360</v>
+        <v>45482</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45361</v>
+        <v>45482</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45361</v>
+        <v>45482</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45361</v>
+        <v>45482</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45361</v>
+        <v>45482</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45361</v>
+        <v>45482</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45361</v>
+        <v>45483</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45362</v>
+        <v>45483</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45362</v>
+        <v>45483</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45362</v>
+        <v>45483</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45362</v>
+        <v>45483</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45362</v>
+        <v>45483</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45362</v>
+        <v>45483</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45363</v>
+        <v>45484</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45363</v>
+        <v>45484</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45363</v>
+        <v>45484</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45363</v>
+        <v>45484</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D71">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45363</v>
+        <v>45484</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45363</v>
+        <v>45484</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45364</v>
+        <v>45484</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45364</v>
+        <v>45485</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45364</v>
+        <v>45485</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45364</v>
+        <v>45485</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45364</v>
+        <v>45485</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D78">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45364</v>
+        <v>45485</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45365</v>
+        <v>45485</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45365</v>
+        <v>45485</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45365</v>
+        <v>45486</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45365</v>
+        <v>45486</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45365</v>
+        <v>45486</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45365</v>
+        <v>45486</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45366</v>
+        <v>45486</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45366</v>
+        <v>45487</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45366</v>
+        <v>45487</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D88">
         <v>105</v>
@@ -1654,209 +1678,209 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45366</v>
+        <v>45487</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45366</v>
+        <v>45487</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D90">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45366</v>
+        <v>45487</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45367</v>
+        <v>45488</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45367</v>
+        <v>45488</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45367</v>
+        <v>45488</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45367</v>
+        <v>45488</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D95">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45367</v>
+        <v>45488</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D96">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45367</v>
+        <v>45488</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45368</v>
+        <v>45488</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45368</v>
+        <v>45489</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45368</v>
+        <v>45489</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45368</v>
+        <v>45489</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D101">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45368</v>
+        <v>45489</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D102">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45368</v>
+        <v>45489</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D103">
         <v>104</v>
@@ -1864,167 +1888,167 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45369</v>
+        <v>45489</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D104">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45369</v>
+        <v>45489</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D105">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45369</v>
+        <v>45490</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
       </c>
       <c r="D106">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45369</v>
+        <v>45490</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45369</v>
+        <v>45490</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45369</v>
+        <v>45490</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D109">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45370</v>
+        <v>45490</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D110">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45370</v>
+        <v>45490</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D111">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45370</v>
+        <v>45490</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D112">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45370</v>
+        <v>45491</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
       <c r="D113">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45370</v>
+        <v>45491</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
       </c>
       <c r="D114">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45370</v>
+        <v>45491</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>106</v>
@@ -2032,125 +2056,125 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45371</v>
+        <v>45491</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D116">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45371</v>
+        <v>45491</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D117">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45371</v>
+        <v>45491</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D118">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45371</v>
+        <v>45491</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D119">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45371</v>
+        <v>45492</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45371</v>
+        <v>45492</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
       <c r="D121">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45372</v>
+        <v>45492</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D122">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45372</v>
+        <v>45492</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D123">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45372</v>
+        <v>45492</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D124">
         <v>104</v>
@@ -2158,13 +2182,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45372</v>
+        <v>45492</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D125">
         <v>103</v>
@@ -2172,13 +2196,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45372</v>
+        <v>45492</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D126">
         <v>108</v>
@@ -2186,856 +2210,1066 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45372</v>
+        <v>45493</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D127">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45373</v>
+        <v>45493</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D128">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45373</v>
+        <v>45493</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D129">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45373</v>
+        <v>45493</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D130">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45373</v>
+        <v>45493</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D131">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45373</v>
+        <v>45494</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D132">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45373</v>
+        <v>45494</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D133">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45374</v>
+        <v>45494</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D134">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45374</v>
+        <v>45494</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D135">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45374</v>
+        <v>45494</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D136">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45374</v>
+        <v>45495</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45374</v>
+        <v>45495</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="D138">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45374</v>
+        <v>45495</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D139">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45375</v>
+        <v>45495</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D140">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45375</v>
+        <v>45495</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45375</v>
+        <v>45495</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45375</v>
+        <v>45495</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D143">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45375</v>
+        <v>45496</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D144">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45375</v>
+        <v>45496</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
       </c>
       <c r="D145">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45376</v>
+        <v>45496</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D146">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45376</v>
+        <v>45496</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D147">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45376</v>
+        <v>45496</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D148">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45376</v>
+        <v>45496</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D149">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45376</v>
+        <v>45496</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D150">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45376</v>
+        <v>45497</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D151">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45377</v>
+        <v>45497</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D152">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45377</v>
+        <v>45497</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D153">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45377</v>
+        <v>45497</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D154">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45377</v>
+        <v>45497</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D155">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45377</v>
+        <v>45497</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D156">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45377</v>
+        <v>45497</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D157">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45378</v>
+        <v>45498</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D158">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45378</v>
+        <v>45498</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D159">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45378</v>
+        <v>45498</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D160">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45378</v>
+        <v>45498</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D161">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45378</v>
+        <v>45498</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D162">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45378</v>
+        <v>45498</v>
       </c>
       <c r="B163" t="s">
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D163">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45379</v>
+        <v>45498</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D164">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45379</v>
+        <v>45499</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D165">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45379</v>
+        <v>45499</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45379</v>
+        <v>45499</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D167">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45379</v>
+        <v>45499</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D168">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45379</v>
+        <v>45499</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D169">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45380</v>
+        <v>45499</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D170">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45380</v>
+        <v>45499</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D171">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45380</v>
+        <v>45500</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D172">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45380</v>
+        <v>45500</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D173">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45380</v>
+        <v>45500</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D174">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45380</v>
+        <v>45500</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D175">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45381</v>
+        <v>45500</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D176">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45381</v>
+        <v>45501</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D177">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45381</v>
+        <v>45501</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D178">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45381</v>
+        <v>45501</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D179">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45381</v>
+        <v>45501</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D180">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45381</v>
+        <v>45501</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D181">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45382</v>
+        <v>45502</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D182">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45382</v>
+        <v>45502</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D183">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45382</v>
+        <v>45502</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D184">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45382</v>
+        <v>45502</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D185">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45382</v>
+        <v>45502</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D186">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45382</v>
+        <v>45502</v>
       </c>
       <c r="B187" t="s">
         <v>9</v>
       </c>
       <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
         <v>12</v>
       </c>
-      <c r="D187">
-        <v>101</v>
+      <c r="D190">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
